--- a/Python/Automation/Excel/data/read/WriteExcel.xlsx
+++ b/Python/Automation/Excel/data/read/WriteExcel.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>91234</v>
+        <v>1234</v>
       </c>
       <c r="G5" t="n">
         <v>90000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>298</v>
+        <v>1298</v>
       </c>
       <c r="G6" t="n">
         <v>30000</v>
@@ -630,7 +630,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Joan "Danger", Anne</t>
+          <t>Joan "Danger</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>123</v>
+        <v>1233</v>
       </c>
       <c r="G7" t="n">
         <v>68000</v>

--- a/Python/Automation/Excel/data/read/WriteExcel.xlsx
+++ b/Python/Automation/Excel/data/read/WriteExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>Zip</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -483,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120 jefferson st.</t>
+          <t>120 Jefferson Street</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,14 +488,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NJ</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>8074</v>
-      </c>
-      <c r="G2" t="n">
-        <v>45000</v>
       </c>
     </row>
     <row r="3">
@@ -516,40 +508,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>220 hobo Av.</t>
+          <t>220 Hobo Avenue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Phila</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PA</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>9119</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>John "Da Man"</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Repici</t>
+          <t>"Da Man"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>120 Jefferson St.</t>
+          <t>121 Jefferson Street</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,14 +548,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NJ</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>8075</v>
-      </c>
-      <c r="G4" t="n">
-        <v>120000</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +568,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7452 Terrace "At the Plaza" road</t>
+          <t>7452 Terrace, At the Plaza road</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -597,9 +583,6 @@
       </c>
       <c r="F5" t="n">
         <v>1234</v>
-      </c>
-      <c r="G5" t="n">
-        <v>90000</v>
       </c>
     </row>
     <row r="6">
@@ -612,35 +595,32 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SomeTown</t>
+          <t>No one knows</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SD</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1298</v>
-      </c>
-      <c r="G6" t="n">
-        <v>30000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Joan "Danger</t>
+          <t>Joan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jet</t>
+          <t>"Danger Jet"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9th, at Terrace plc</t>
+          <t>9th, at Terrace place</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,9 +635,6 @@
       </c>
       <c r="F7" t="n">
         <v>1233</v>
-      </c>
-      <c r="G7" t="n">
-        <v>68000</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Automation/Excel/data/read/WriteExcel.xlsx
+++ b/Python/Automation/Excel/data/read/WriteExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Zip</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +499,9 @@
       <c r="F2" t="n">
         <v>8074</v>
       </c>
+      <c r="G2" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -524,6 +532,9 @@
       <c r="F3" t="n">
         <v>9119</v>
       </c>
+      <c r="G3" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -554,6 +565,9 @@
       <c r="F4" t="n">
         <v>8075</v>
       </c>
+      <c r="G4" t="n">
+        <v>17000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -583,6 +597,9 @@
       </c>
       <c r="F5" t="n">
         <v>1234</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19000</v>
       </c>
     </row>
     <row r="6">
@@ -606,6 +623,9 @@
       <c r="F6" t="n">
         <v>1298</v>
       </c>
+      <c r="G6" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -635,6 +655,9 @@
       </c>
       <c r="F7" t="n">
         <v>1233</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14000</v>
       </c>
     </row>
   </sheetData>
